--- a/Version_3/JSONs/Student_info.xlsx
+++ b/Version_3/JSONs/Student_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MS 2.0\UMDearborn\Lab_Projects\name_pronounciation\name_pro\updated_project\updated_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MS 2.0\UMDearborn\Lab_Projects\name_pronounciation\name_pro_project_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE93B310-B40E-4432-8599-D7A19CA354BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BB06E3-BE1E-4C9A-BD4B-AA31C20F3D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{7657578E-B209-452C-B657-0A94236F5819}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>UMID</t>
   </si>
   <si>
-    <t>email address</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
@@ -126,6 +123,477 @@
   </si>
   <si>
     <t>BS, Computer Engineering</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit Arvind Barde </t>
+  </si>
+  <si>
+    <t>harshitb@umich.edu</t>
+  </si>
+  <si>
+    <t>Naitik Sachin Gandhi</t>
+  </si>
+  <si>
+    <t>naitik@umich.edu</t>
+  </si>
+  <si>
+    <t>MS Supply Chain Management</t>
+  </si>
+  <si>
+    <t>College of Business</t>
+  </si>
+  <si>
+    <t>Nicholas Capul</t>
+  </si>
+  <si>
+    <t>ncapul@umich.edu</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>College of Arts, Sciences, and Letters</t>
+  </si>
+  <si>
+    <t>MS, Data Science</t>
+  </si>
+  <si>
+    <t>49223051</t>
+  </si>
+  <si>
+    <t>Neha Achyut</t>
+  </si>
+  <si>
+    <t>aneha@umich.edu</t>
+  </si>
+  <si>
+    <t>MS, Business Analytics</t>
+  </si>
+  <si>
+    <t>74670746</t>
+  </si>
+  <si>
+    <t>Ahmed Al Khanjari</t>
+  </si>
+  <si>
+    <t>aalkhanj@umich.edu</t>
+  </si>
+  <si>
+    <t>BBA, Information Systems Management</t>
+  </si>
+  <si>
+    <t>55613281</t>
+  </si>
+  <si>
+    <t>Aml Ali</t>
+  </si>
+  <si>
+    <t>amlalii@umich.edu</t>
+  </si>
+  <si>
+    <t>AB, Psychology</t>
+  </si>
+  <si>
+    <t>55570987</t>
+  </si>
+  <si>
+    <t>Samar Alkhulaidi</t>
+  </si>
+  <si>
+    <t>alkhulsa@umich.edu</t>
+  </si>
+  <si>
+    <t>MBA, Business Administration</t>
+  </si>
+  <si>
+    <t>27927942</t>
+  </si>
+  <si>
+    <t>Luke Anderson</t>
+  </si>
+  <si>
+    <t>skyander@umich.edu</t>
+  </si>
+  <si>
+    <t>AB, Women's and Gender Studies</t>
+  </si>
+  <si>
+    <t>21698704</t>
+  </si>
+  <si>
+    <t>Ralena Anderson</t>
+  </si>
+  <si>
+    <t>ralenala@umich.edu</t>
+  </si>
+  <si>
+    <t>BBA, Accounting</t>
+  </si>
+  <si>
+    <t>76713529</t>
+  </si>
+  <si>
+    <t>Micah Angus</t>
+  </si>
+  <si>
+    <t>micahga@umich.edu</t>
+  </si>
+  <si>
+    <t>MSE, Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>15832878</t>
+  </si>
+  <si>
+    <t>Kevin Anthony</t>
+  </si>
+  <si>
+    <t>kevinant@umich.edu</t>
+  </si>
+  <si>
+    <t>MS, Engineering Management</t>
+  </si>
+  <si>
+    <t>77731767</t>
+  </si>
+  <si>
+    <t>Doha Aoude</t>
+  </si>
+  <si>
+    <t>dohaoude@umich.edu</t>
+  </si>
+  <si>
+    <t>90375128</t>
+  </si>
+  <si>
+    <t>Ali Arsalan</t>
+  </si>
+  <si>
+    <t>aarsalan@umich.edu</t>
+  </si>
+  <si>
+    <t>95148189</t>
+  </si>
+  <si>
+    <t>Debjani Biswas</t>
+  </si>
+  <si>
+    <t>dbiswas@umich.edu</t>
+  </si>
+  <si>
+    <t>MS, Info Systems and Technology</t>
+  </si>
+  <si>
+    <t>38284715</t>
+  </si>
+  <si>
+    <t>Nico Bokhari</t>
+  </si>
+  <si>
+    <t>nebokha@umich.edu</t>
+  </si>
+  <si>
+    <t>BS, Software Engineering</t>
+  </si>
+  <si>
+    <t>44861939</t>
+  </si>
+  <si>
+    <t>Seoyoung Kim</t>
+  </si>
+  <si>
+    <t>syoungk@umich.edu</t>
+  </si>
+  <si>
+    <t>42632116</t>
+  </si>
+  <si>
+    <t>Brenton Klimek</t>
+  </si>
+  <si>
+    <t>bklimek@umich.edu</t>
+  </si>
+  <si>
+    <t>09679560</t>
+  </si>
+  <si>
+    <t>Rahul Reddy Kondam</t>
+  </si>
+  <si>
+    <t>krahul@umich.edu</t>
+  </si>
+  <si>
+    <t>07962478</t>
+  </si>
+  <si>
+    <t>Emily Leich</t>
+  </si>
+  <si>
+    <t>emleich@umich.edu</t>
+  </si>
+  <si>
+    <t>BS, Physics</t>
+  </si>
+  <si>
+    <t>92223910</t>
+  </si>
+  <si>
+    <t>Joseph Lubomirski</t>
+  </si>
+  <si>
+    <t>lubomirs@umich.edu</t>
+  </si>
+  <si>
+    <t>22044764</t>
+  </si>
+  <si>
+    <t>Danica Marentette</t>
+  </si>
+  <si>
+    <t>goku@umich.edu</t>
+  </si>
+  <si>
+    <t>92514116</t>
+  </si>
+  <si>
+    <t>Carrie Marlow</t>
+  </si>
+  <si>
+    <t>ccdarkow@umich.edu</t>
+  </si>
+  <si>
+    <t>BBA, Supply Chain Management</t>
+  </si>
+  <si>
+    <t>55527754</t>
+  </si>
+  <si>
+    <t>Darena Matti</t>
+  </si>
+  <si>
+    <t>darenam@umich.edu</t>
+  </si>
+  <si>
+    <t>BS, Behavioral and Biological Sci</t>
+  </si>
+  <si>
+    <t>89373428</t>
+  </si>
+  <si>
+    <t>Alexander Mauney</t>
+  </si>
+  <si>
+    <t>amauney@umich.edu</t>
+  </si>
+  <si>
+    <t>BSEME, Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>10810031</t>
+  </si>
+  <si>
+    <t>Patrick Mayhew</t>
+  </si>
+  <si>
+    <t>pcmayhew@umich.edu</t>
+  </si>
+  <si>
+    <t>AB, Communications</t>
+  </si>
+  <si>
+    <t>29661676</t>
+  </si>
+  <si>
+    <t>Ashish Ranjan</t>
+  </si>
+  <si>
+    <t>ashishr@umich.edu</t>
+  </si>
+  <si>
+    <t>58391264</t>
+  </si>
+  <si>
+    <t>Anthony Regalbuto</t>
+  </si>
+  <si>
+    <t>aregalbu@umich.edu</t>
+  </si>
+  <si>
+    <t>19029726</t>
+  </si>
+  <si>
+    <t>Wasey Rehman</t>
+  </si>
+  <si>
+    <t>waseyr@umich.edu</t>
+  </si>
+  <si>
+    <t>BS, Biochemistry</t>
+  </si>
+  <si>
+    <t>02460871</t>
+  </si>
+  <si>
+    <t>Jana Rida</t>
+  </si>
+  <si>
+    <t>jrida@umich.edu</t>
+  </si>
+  <si>
+    <t>BSEBE, Bioengineering</t>
+  </si>
+  <si>
+    <t>35587545</t>
+  </si>
+  <si>
+    <t>Dylan Romo</t>
+  </si>
+  <si>
+    <t>dromo@umich.edu</t>
+  </si>
+  <si>
+    <t>56882748</t>
+  </si>
+  <si>
+    <t>Jaxson Rook</t>
+  </si>
+  <si>
+    <t>rjaxson@umich.edu</t>
+  </si>
+  <si>
+    <t>49122116</t>
+  </si>
+  <si>
+    <t>Patrick Ruhala</t>
+  </si>
+  <si>
+    <t>pruhala@umich.edu</t>
+  </si>
+  <si>
+    <t>College of Arts, Science, and Letters</t>
+  </si>
+  <si>
+    <t>Phonetics</t>
+  </si>
+  <si>
+    <t>aa-di-tyaa ben-da-le</t>
+  </si>
+  <si>
+    <t>uh-bhi-shekh uh-shok bor-de</t>
+  </si>
+  <si>
+    <t>hur-sheeth ur-veend bor-de</t>
+  </si>
+  <si>
+    <t>swe-thaa raa-nee kaa-see-mal-laa</t>
+  </si>
+  <si>
+    <t>ab-dool ka-reem shaik</t>
+  </si>
+  <si>
+    <t>lor-uh sas</t>
+  </si>
+  <si>
+    <t>gna-na ya-sha-svee-nee shree-ram</t>
+  </si>
+  <si>
+    <t>jak-sun ko-luh-ross-ee</t>
+  </si>
+  <si>
+    <t>nye-teek suh-chin gan-dee</t>
+  </si>
+  <si>
+    <t>nik-uh-lus ka-pul</t>
+  </si>
+  <si>
+    <t>ne-haa a-chyoot</t>
+  </si>
+  <si>
+    <t>ah-med al khan-ja-ree</t>
+  </si>
+  <si>
+    <t>am-l aa-lee</t>
+  </si>
+  <si>
+    <t>sa-mar al-khoo-laa-ee-dee</t>
+  </si>
+  <si>
+    <t>look an-der-sun</t>
+  </si>
+  <si>
+    <t>ra-leh-nuh an-der-sun</t>
+  </si>
+  <si>
+    <t>my-kuh ang-gus</t>
+  </si>
+  <si>
+    <t>kev-in an-thuh-nee</t>
+  </si>
+  <si>
+    <t>doh-haa ow-dee</t>
+  </si>
+  <si>
+    <t>aa-lee ar-saa-lun</t>
+  </si>
+  <si>
+    <t>deh-bjaa-nee bis-waas</t>
+  </si>
+  <si>
+    <t>nee-ko bo-khuh-ree</t>
+  </si>
+  <si>
+    <t>bren-tun kli-mek</t>
+  </si>
+  <si>
+    <t>ra-hool reh-dee kon-dam</t>
+  </si>
+  <si>
+    <t>em-i-lee leech</t>
+  </si>
+  <si>
+    <t>jo-zef loo-bo-mir-skee</t>
+  </si>
+  <si>
+    <t>da-nee-kuh ma-ren-tet</t>
+  </si>
+  <si>
+    <t>keh-ree mar-loh</t>
+  </si>
+  <si>
+    <t>da-ree-nuh mat-tee</t>
+  </si>
+  <si>
+    <t>al-eg-zan-der maw-nee</t>
+  </si>
+  <si>
+    <t>pa-trik may-hyoo</t>
+  </si>
+  <si>
+    <t>aa-sheesh run-jun</t>
+  </si>
+  <si>
+    <t>an-thuh-nee reh-guhl-byoo-toh</t>
+  </si>
+  <si>
+    <t>wa-sey reh-man</t>
+  </si>
+  <si>
+    <t>jaa-nuh ree-duh</t>
+  </si>
+  <si>
+    <t>di-lun roh-moh</t>
+  </si>
+  <si>
+    <t>jak-sun rook</t>
+  </si>
+  <si>
+    <t>pa-trik roo-haa-laa</t>
+  </si>
+  <si>
+    <t>saw-yung kim</t>
   </si>
 </sst>
 </file>
@@ -499,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBF8E43-ACE5-49D9-B17A-BCFC8B167504}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,145 +978,809 @@
     <col min="1" max="1" width="24.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.90625" customWidth="1"/>
     <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="4" max="4" width="48.1796875" customWidth="1"/>
     <col min="5" max="5" width="36.81640625" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" customWidth="1"/>
+    <col min="6" max="6" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>63402444</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>41170311</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>67938153</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
+      <c r="F8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>68512784</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>85289598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>93950350</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -660,8 +1792,12 @@
     <hyperlink ref="C6" r:id="rId5" xr:uid="{825DFBDD-1906-4E99-882C-FE391E226896}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{B2D6D681-7A29-4ACA-BCBE-BA0B1C9122E2}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{EC8D6E64-729F-4F43-8A82-F67CF7EA3E18}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{FC2F249D-2008-43E7-8874-1C056E30C613}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{416CA303-BA0C-4A63-98D8-8AA0053C4F09}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{73CA8666-533E-475E-B81A-B235276F9178}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{A270E62F-058C-4D60-BA35-E29F3D358087}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>